--- a/test_input/testing2.xlsx
+++ b/test_input/testing2.xlsx
@@ -8,65 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\excel2json\test_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81B8774-B291-4619-9ADB-9440A077F41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7379781D-1E49-4F55-A808-4B4F8F175C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="105" windowWidth="13050" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="0" windowWidth="17460" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ACCESSIBLE KING" sheetId="5" r:id="rId1"/>
-    <sheet name="AK Programming Details" sheetId="4" r:id="rId2"/>
+    <sheet name="Testing Programming Details" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
-  <si>
-    <t xml:space="preserve">ACCESSIBLE KING ROOMS </t>
-  </si>
-  <si>
-    <t>Room Number</t>
-  </si>
-  <si>
-    <t>Existing Network Name</t>
-  </si>
-  <si>
-    <t>3004SD</t>
-  </si>
-  <si>
-    <t>4004SD</t>
-  </si>
-  <si>
-    <t>5004SD</t>
-  </si>
-  <si>
-    <t>6004SD</t>
-  </si>
-  <si>
-    <t>7004SD</t>
-  </si>
-  <si>
-    <t>8004SD</t>
-  </si>
-  <si>
-    <t>9004SD</t>
-  </si>
-  <si>
-    <t>1004SD</t>
-  </si>
-  <si>
-    <t>1104SD</t>
-  </si>
-  <si>
-    <t>1204SD</t>
-  </si>
-  <si>
-    <t>1304SD</t>
-  </si>
-  <si>
-    <t>1404SD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>ACCESSIBLE KING Programming Details - GPO</t>
   </si>
@@ -114,60 +68,10 @@
     <t>4OUT</t>
   </si>
   <si>
-    <t>A
-B
-C
-E
-F
-V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-D
-G
-H</t>
-  </si>
-  <si>
-    <t>NAME: KBSKTDIM
-（SOCKET DIMMER）</t>
-  </si>
-  <si>
-    <t>NAME: KBSKTREL
-（SOCKET RELAY）</t>
-  </si>
-  <si>
     <t>NAME: 6INPUT</t>
   </si>
   <si>
     <t xml:space="preserve">NAME: 4OUTPUT </t>
-  </si>
-  <si>
-    <t>NAME: BRIGHT</t>
-  </si>
-  <si>
-    <t>NAME: OFF</t>
-  </si>
-  <si>
-    <t>NAME: SOFT</t>
-  </si>
-  <si>
-    <t>NAME: BATH ON</t>
-  </si>
-  <si>
-    <t>NAME: BATH OFF</t>
-  </si>
-  <si>
-    <t>NAME: BATH MOOD</t>
-  </si>
-  <si>
-    <t>NAME: WELCOME</t>
-  </si>
-  <si>
-    <t>NAME: OCCUPIED</t>
-  </si>
-  <si>
-    <t>CONTROL CONTENT:
-E, V OFF</t>
   </si>
   <si>
     <t xml:space="preserve">NA
@@ -230,31 +134,7 @@
 6: DEVICE V</t>
   </si>
   <si>
-    <t>CONTROL CONTENT:
-E ON</t>
-  </si>
-  <si>
-    <t>CONTROL CONTENT:
-E ON
-V ON +90%</t>
-  </si>
-  <si>
-    <t>CONTROL CONTENT:
-A ON +70%
-G, D ON</t>
-  </si>
-  <si>
     <t>NAME: FC150A2</t>
-  </si>
-  <si>
-    <t>FAN1
-FAN2</t>
-  </si>
-  <si>
-    <t>CONTROL CONTENT:
-A ON +70%
-H, G, D ON
-B, C, E, F, H, V OFF</t>
   </si>
   <si>
     <t>NAME: H1PPWVBX</t>
@@ -270,25 +150,143 @@
 PPT_2</t>
   </si>
   <si>
+    <t>NAME: DIMMER TESTING</t>
+  </si>
+  <si>
+    <t>d1
+d2
+d3
+d4
+d5
+d6
+d7
+d8
+d9
+d10
+d11
+d12
+d13
+d14
+d15</t>
+  </si>
+  <si>
     <t>CONTROL CONTENT:
-A ON +70%
+d1 ON 
+d2 OFF 
+d3, d4 ON 
+d4, d5 OFF 
+d6 ON +60% 
+d7, d8 ON +70%
+d9, d10, d11 OFF
+d12, d13, d14, d15 ON +20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME: KBSKTREL
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME: KBSKTDIM
+</t>
+  </si>
+  <si>
+    <t>r1
+r2
+r3
+r4
+r5
+r6
+r7
+r8</t>
+  </si>
+  <si>
+    <t>NAME: RELAY TESTING</t>
+  </si>
+  <si>
+    <t>NAME: FAN TESTING</t>
+  </si>
+  <si>
+    <t>NAME: CURTAIN TESTING</t>
+  </si>
+  <si>
+    <t>CURTAIN_1
+CURTAIN_2
+CURTAIN_3
+CURTAIN_4
+CURTAIN_5
+CURTAIN_6</t>
+  </si>
+  <si>
+    <t>NAME: C300IBH</t>
+  </si>
+  <si>
+    <t>QTY: 6</t>
+  </si>
+  <si>
+    <t>r1 ON
+r2 OFF
+r3, r4, r5 ON
+r6, r7, r8 OFF</t>
+  </si>
+  <si>
+    <t>FAN1
+FAN2
+FAN3
+FAN4</t>
+  </si>
+  <si>
+    <t>FAN1 ON RELAY ON SPEED 3
+FAN2 OFF RELAY OFF SPEED 0
+FAN3 ON RELAY OFF SPEED 2
+FAN2 ON RELAY ON SPEED 1</t>
+  </si>
+  <si>
+    <t>NAME: POWERPOINT TESTING 1</t>
+  </si>
+  <si>
+    <t>NAME: POWERPOINT TESTING 2</t>
+  </si>
+  <si>
+    <t>CURTAIN_1 OPEN
+CURTAIN_2 CLOSE
+CURTAIN_3, CURTAIN_4 OPEN
+CURTAIN_5, CURTAIN_6 CLOSE</t>
+  </si>
+  <si>
+    <t>PPT_1 ON ON
+PPT_2 OFF OFF
+PPT3 ON</t>
+  </si>
+  <si>
+    <t>PPT_1 OFF ON
+PPT_2 ON OFF
+PPT3 OFF</t>
+  </si>
+  <si>
+    <t>NAME: MIXED TESTING</t>
+  </si>
+  <si>
+    <t>d1 ON 
+d2 OFF 
+d3, d4 ON 
+d4, d5 OFF 
+d6 ON +60% 
+d7, d8 ON +70%
+d9, d10, d11 OFF
+d12, d13, d14, d15 ON +20%
+r1 ON
+r2 OFF
+r3, r4, r5 ON
+r6, r7, r8 OFF
 FAN1 ON RELAY ON SPEED 3
-FAN2 OFF RELAY OFF SPEED 1
+FAN2 OFF RELAY OFF SPEED 0
+FAN3 ON RELAY OFF SPEED 2
+FAN2 ON RELAY ON SPEED 1
+CURTAIN_1 OPEN
+CURTAIN_2 CLOSE
+CURTAIN_3, CURTAIN_4 OPEN
+CURTAIN_5, CURTAIN_6 CLOSE
 PPT_1 ON ON
 PPT_2 OFF OFF
-PPT3 ON</t>
-  </si>
-  <si>
-    <t>CONTROL CONTENT:
-A OFF
-PPT_1 OFF ON
-PPT_2 ON OFF
-PPT3 OFF</t>
-  </si>
-  <si>
-    <t>CONTROL CONTENT:
-A ON +10%
-PPT_1, PPT_2 ON OFF
 PPT3 ON</t>
   </si>
 </sst>
@@ -302,13 +300,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,6 +381,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -587,13 +584,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -613,11 +607,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -626,7 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -638,60 +632,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -704,22 +689,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -755,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1035,143 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="21">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="19">
-        <v>3005</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="19">
-        <v>4005</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="19">
-        <v>5005</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="19">
-        <v>6005</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="19">
-        <v>7005</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="19">
-        <v>8005</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="19">
-        <v>9005</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="19">
-        <v>1005</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="19">
-        <v>1105</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="19">
-        <v>1205</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="19">
-        <v>1305</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="19">
-        <v>1405</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1182,11 +1035,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.45" customHeight="1">
-      <c r="A1" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="1"/>
@@ -1194,393 +1047,411 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="225">
+      <c r="A4" s="37"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="37"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="37"/>
+      <c r="B6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45.95" customHeight="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="30">
+      <c r="A9" s="37"/>
+      <c r="B9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27.6" customHeight="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+    </row>
+    <row r="12" spans="1:3" ht="30">
+      <c r="A12" s="37"/>
+      <c r="B12" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42" customHeight="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="37"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="90">
+      <c r="A16" s="37"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="30"/>
+    </row>
+    <row r="18" spans="1:3" ht="30">
+      <c r="A18" s="37"/>
+      <c r="B18" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60">
+      <c r="A19" s="37"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="37"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+    </row>
+    <row r="21" spans="1:3" ht="30">
+      <c r="A21" s="37"/>
+      <c r="B21" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="26.1" customHeight="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" ht="30">
+      <c r="A24" s="37"/>
+      <c r="B24" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="8"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="48"/>
+    </row>
+    <row r="29" spans="1:3" ht="30">
+      <c r="A29" s="40"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="10"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="50"/>
+    </row>
+    <row r="33" spans="1:3" ht="135">
+      <c r="A33" s="37"/>
+      <c r="B33" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60">
+      <c r="A34" s="37"/>
+      <c r="B34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="60">
+      <c r="A35" s="37"/>
+      <c r="B35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="60">
+      <c r="A36" s="37"/>
+      <c r="B36" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="45">
+      <c r="A37" s="37"/>
+      <c r="B37" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45">
+      <c r="A38" s="37"/>
+      <c r="B38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="405">
+      <c r="A39" s="37"/>
+      <c r="B39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="38"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="22"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="50"/>
+    </row>
+    <row r="44" spans="1:3" ht="30">
+      <c r="A44" s="37"/>
+      <c r="B44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="90">
-      <c r="A4" s="41"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="21" t="s">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="37"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+    </row>
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="37"/>
+      <c r="B46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="37"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
+    </row>
+    <row r="48" spans="1:3" ht="60">
+      <c r="A48" s="37"/>
+      <c r="B48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="37"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+    </row>
+    <row r="50" spans="1:3" ht="60">
+      <c r="A50" s="37"/>
+      <c r="B50" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="37"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+    </row>
+    <row r="52" spans="1:3" ht="90">
+      <c r="A52" s="37"/>
+      <c r="B52" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="41"/>
-      <c r="B6" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45.95" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="41"/>
-      <c r="B9" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27.6" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-    </row>
-    <row r="12" spans="1:3" ht="30">
-      <c r="A12" s="41"/>
-      <c r="B12" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="42" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-    </row>
-    <row r="15" spans="1:3" ht="30">
-      <c r="A15" s="41"/>
-      <c r="B15" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30">
-      <c r="A16" s="41"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-    </row>
-    <row r="18" spans="1:3" ht="30">
-      <c r="A18" s="41"/>
-      <c r="B18" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="26.1" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" ht="30">
-      <c r="A21" s="41"/>
-      <c r="B21" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="23" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="37"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+    </row>
+    <row r="54" spans="1:3" ht="90">
+      <c r="A54" s="37"/>
+      <c r="B54" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="52"/>
-    </row>
-    <row r="26" spans="1:3" ht="30">
-      <c r="A26" s="44"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="11"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="11"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="40" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55" s="41"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="38"/>
+      <c r="B56" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="54"/>
-    </row>
-    <row r="30" spans="1:3" ht="105">
-      <c r="A30" s="41"/>
-      <c r="B30" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="75">
-      <c r="A31" s="41"/>
-      <c r="B31" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="60">
-      <c r="A32" s="41"/>
-      <c r="B32" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30">
-      <c r="A33" s="41"/>
-      <c r="B33" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30">
-      <c r="A34" s="41"/>
-      <c r="B34" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="45">
-      <c r="A35" s="41"/>
-      <c r="B35" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="45">
-      <c r="A36" s="41"/>
-      <c r="B36" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="60">
-      <c r="A37" s="42"/>
-      <c r="B37" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="40" t="s">
+      <c r="C56" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="B40" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="54"/>
-    </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="41"/>
-      <c r="B41" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="41"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-    </row>
-    <row r="43" spans="1:3" ht="30">
-      <c r="A43" s="41"/>
-      <c r="B43" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="41"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-    </row>
-    <row r="45" spans="1:3" ht="60">
-      <c r="A45" s="41"/>
-      <c r="B45" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
-    </row>
-    <row r="47" spans="1:3" ht="60">
-      <c r="A47" s="41"/>
-      <c r="B47" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-    </row>
-    <row r="49" spans="1:3" ht="90">
-      <c r="A49" s="41"/>
-      <c r="B49" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="37"/>
-    </row>
-    <row r="51" spans="1:3" ht="90">
-      <c r="A51" s="41"/>
-      <c r="B51" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="45"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A40:A53"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A43:A56"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/test_input/testing2.xlsx
+++ b/test_input/testing2.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackliu\Desktop\excel2json\test_input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC068BF-E1AB-4C86-A66D-BD6C2CCF7313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="120" windowWidth="17460" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Testing Programming Details" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Testing Programming Details"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -210,6 +204,9 @@
     <t>PPT_1 OFF ON
 PPT_2 ON OFF
 PPT3 OFF</t>
+  </si>
+  <si>
+    <t>NAME: POWERPOINT TESTING 5</t>
   </si>
   <si>
     <t>d1 ON 
@@ -237,6 +234,10 @@
 PPT3 ON</t>
   </si>
   <si>
+    <t xml:space="preserve">CONTROL CONTENT:
+d1 ON </t>
+  </si>
+  <si>
     <t>REMOTE CONTROL LINK</t>
   </si>
   <si>
@@ -298,19 +299,13 @@
   <si>
     <t>1: DEVICE H</t>
   </si>
-  <si>
-    <t xml:space="preserve">CONTROL CONTENT:
-d1 ON </t>
-  </si>
-  <si>
-    <t>NAME: MIXED TESTING 5</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,12 +329,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -354,7 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFff0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -547,149 +536,131 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="39">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -700,10 +671,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -741,71 +712,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,7 +804,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -856,11 +827,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -869,13 +840,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -885,7 +856,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -894,7 +865,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -903,7 +874,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -911,10 +882,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -979,448 +950,447 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="37" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="38" width="28.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="38" width="87.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="25.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="25.5">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="208.5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="30" t="s">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="5"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="5"/>
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="114">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="3"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="30" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="5"/>
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
+      <c r="A10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="30" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="5"/>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="82.5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="5"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="30" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="5"/>
+      <c r="B18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="60">
+      <c r="A19" s="5"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="5"/>
+      <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="26.100000000000005">
+      <c r="A22" s="5"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="32" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="5"/>
+      <c r="B24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-    </row>
-    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="38"/>
-    </row>
-    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14" t="s">
+      <c r="C28" s="23"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-    </row>
-    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-    </row>
-    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="40"/>
-    </row>
-    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="15" t="s">
+      <c r="C32" s="28"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="15" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="15" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="15" t="s">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="46.5">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="46.5">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="370.5">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="33.75">
+      <c r="A42" s="16"/>
+      <c r="B42" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="31"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="32"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="28"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="5"/>
+      <c r="B46" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="5"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="5"/>
+      <c r="B48" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="5"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="60">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="5"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="60">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="87">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="5"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="87">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="34"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="26" t="s">
         <v>61</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="C43" s="19"/>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="40"/>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-    </row>
-    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
-    </row>
-    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="29"/>
-    </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="29"/>
-    </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
-    </row>
-    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B57:C57"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A25"/>
     <mergeCell ref="B3:B4"/>
@@ -1434,6 +1404,18 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
